--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="175">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,12 +40,12 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>disgusting</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
@@ -58,427 +58,487 @@
     <t>fear</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>anxiety</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>shame</t>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>crude</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>demand</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>businesses</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>masks</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>gloves</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>services</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>tips</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>let</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>going</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>workers</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>qu</t>
+  </si>
+  <si>
+    <t>would</t>
   </si>
   <si>
     <t>food</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>hands</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>video</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>businesses</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>tips</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>gloves</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>masks</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>let</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>times</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>employees</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>workers</t>
-  </si>
-  <si>
-    <t>dona</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>qu</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>ho</t>
-  </si>
-  <si>
-    <t>going</t>
-  </si>
-  <si>
-    <t>still</t>
+    <t>buying</t>
   </si>
   <si>
     <t>need</t>
   </si>
   <si>
     <t>pan</t>
+  </si>
+  <si>
+    <t>oil</t>
   </si>
 </sst>
 </file>
@@ -836,7 +896,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q130"/>
+  <dimension ref="A1:Q151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -844,10 +904,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -905,13 +965,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -923,31 +983,31 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K3">
-        <v>0.8582677165354331</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="N3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -955,13 +1015,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7894736842105263</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -973,31 +1033,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4">
+        <v>0.9322033898305084</v>
+      </c>
+      <c r="L4">
+        <v>55</v>
+      </c>
+      <c r="M4">
+        <v>55</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>4</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4">
-        <v>0.8547008547008547</v>
-      </c>
-      <c r="L4">
-        <v>100</v>
-      </c>
-      <c r="M4">
-        <v>103</v>
-      </c>
-      <c r="N4">
-        <v>0.97</v>
-      </c>
-      <c r="O4">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1005,13 +1065,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7586206896551724</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1023,31 +1083,31 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K5">
-        <v>0.8454545454545455</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="M5">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="N5">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1055,13 +1115,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6917808219178082</v>
+        <v>0.6883561643835616</v>
       </c>
       <c r="C6">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D6">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1073,28 +1133,28 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>0.8271604938271605</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="N6">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>14</v>
@@ -1126,28 +1186,28 @@
         <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>0.8103448275862069</v>
+        <v>0.859375</v>
       </c>
       <c r="L7">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="M7">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="N7">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1155,13 +1215,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6153846153846154</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1173,19 +1233,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K8">
-        <v>0.7394366197183099</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L8">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="M8">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1197,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1205,13 +1265,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5600000000000001</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1223,31 +1283,31 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K9">
-        <v>0.7388535031847133</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L9">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="N9">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1255,13 +1315,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5483870967741935</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1273,31 +1333,31 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>0.72</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L10">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="M10">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="N10">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1305,7 +1365,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C11">
         <v>13</v>
@@ -1323,31 +1383,31 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>0.6869565217391305</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L11">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="M11">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="N11">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>72</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1355,13 +1415,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1373,19 +1433,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="K12">
-        <v>0.6739130434782609</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="M12">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1397,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1405,13 +1465,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3783783783783784</v>
+        <v>0.3217054263565892</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1423,31 +1483,31 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>23</v>
+        <v>350</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K13">
-        <v>0.6483516483516484</v>
+        <v>0.75625</v>
       </c>
       <c r="L13">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="M13">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="N13">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1455,13 +1515,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3624031007751938</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C14">
-        <v>187</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>187</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1473,31 +1533,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>329</v>
+        <v>36</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="K14">
-        <v>0.6061538461538462</v>
+        <v>0.7340425531914894</v>
       </c>
       <c r="L14">
-        <v>197</v>
+        <v>69</v>
       </c>
       <c r="M14">
-        <v>212</v>
+        <v>69</v>
       </c>
       <c r="N14">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>128</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1505,49 +1565,49 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2592592592592592</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15">
         <v>15</v>
       </c>
       <c r="E15">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>40</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>0.6052631578947368</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L15">
-        <v>230</v>
+        <v>75</v>
       </c>
       <c r="M15">
-        <v>233</v>
+        <v>75</v>
       </c>
       <c r="N15">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>150</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1555,13 +1615,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2549019607843137</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1573,31 +1633,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K16">
-        <v>0.5609756097560976</v>
+        <v>0.6903765690376569</v>
       </c>
       <c r="L16">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M16">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="N16">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1605,13 +1665,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2207792207792208</v>
+        <v>0.2281879194630873</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D17">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1623,31 +1683,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K17">
-        <v>0.5465116279069767</v>
+        <v>0.6724137931034483</v>
       </c>
       <c r="L17">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="M17">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="N17">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1655,13 +1715,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1879194630872483</v>
+        <v>0.175</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1673,31 +1733,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>0.543859649122807</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N18">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1705,383 +1765,239 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.1048951048951049</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>212</v>
+        <v>18</v>
       </c>
       <c r="E19">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>128</v>
+        <v>234</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19">
+        <v>0.6279069767441861</v>
+      </c>
+      <c r="L19">
+        <v>27</v>
+      </c>
+      <c r="M19">
+        <v>27</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20">
+        <v>0.6205882352941177</v>
+      </c>
+      <c r="L20">
+        <v>211</v>
+      </c>
+      <c r="M20">
+        <v>211</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="L21">
+        <v>22</v>
+      </c>
+      <c r="M21">
+        <v>22</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22">
+        <v>0.6078431372549019</v>
+      </c>
+      <c r="L22">
+        <v>31</v>
+      </c>
+      <c r="M22">
+        <v>31</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="J23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="L23">
+        <v>29</v>
+      </c>
+      <c r="M23">
+        <v>29</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K19">
-        <v>0.5396825396825397</v>
-      </c>
-      <c r="L19">
-        <v>34</v>
-      </c>
-      <c r="M19">
-        <v>34</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.07936507936507936</v>
-      </c>
-      <c r="C20">
-        <v>20</v>
-      </c>
-      <c r="D20">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>232</v>
-      </c>
-      <c r="J20" s="1" t="s">
+      <c r="K24">
+        <v>0.597911227154047</v>
+      </c>
+      <c r="L24">
+        <v>229</v>
+      </c>
+      <c r="M24">
+        <v>229</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K20">
-        <v>0.5319148936170213</v>
-      </c>
-      <c r="L20">
-        <v>25</v>
-      </c>
-      <c r="M20">
-        <v>25</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.04289544235924933</v>
-      </c>
-      <c r="C21">
-        <v>16</v>
-      </c>
-      <c r="D21">
-        <v>16</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>357</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K21">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="L21">
-        <v>16</v>
-      </c>
-      <c r="M21">
-        <v>16</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.02040816326530612</v>
-      </c>
-      <c r="C22">
-        <v>18</v>
-      </c>
-      <c r="D22">
-        <v>104</v>
-      </c>
-      <c r="E22">
-        <v>0.83</v>
-      </c>
-      <c r="F22">
-        <v>0.17</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>864</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K22">
-        <v>0.4411764705882353</v>
-      </c>
-      <c r="L22">
-        <v>30</v>
-      </c>
-      <c r="M22">
-        <v>32</v>
-      </c>
-      <c r="N22">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O22">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P22" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q22">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.01965601965601966</v>
-      </c>
-      <c r="C23">
-        <v>32</v>
-      </c>
-      <c r="D23">
-        <v>547</v>
-      </c>
-      <c r="E23">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F23">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>1596</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K23">
-        <v>0.42</v>
-      </c>
-      <c r="L23">
-        <v>21</v>
-      </c>
-      <c r="M23">
-        <v>22</v>
-      </c>
-      <c r="N23">
-        <v>0.95</v>
-      </c>
-      <c r="O23">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q23">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.01474926253687316</v>
-      </c>
-      <c r="C24">
-        <v>35</v>
-      </c>
-      <c r="D24">
-        <v>769</v>
-      </c>
-      <c r="E24">
-        <v>0.95</v>
-      </c>
-      <c r="F24">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>2338</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K24">
-        <v>0.40625</v>
-      </c>
-      <c r="L24">
-        <v>13</v>
-      </c>
-      <c r="M24">
-        <v>14</v>
-      </c>
-      <c r="N24">
-        <v>0.93</v>
-      </c>
-      <c r="O24">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q24">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.008735282947208508</v>
-      </c>
-      <c r="C25">
-        <v>23</v>
-      </c>
-      <c r="D25">
-        <v>591</v>
-      </c>
-      <c r="E25">
-        <v>0.96</v>
-      </c>
-      <c r="F25">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>2610</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="K25">
-        <v>0.4047619047619048</v>
+        <v>0.5627118644067797</v>
       </c>
       <c r="L25">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="M25">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="N25">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>0.3987341772151899</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L26">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="M26">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="N26">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>95</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K27">
-        <v>0.3956043956043956</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L27">
         <v>36</v>
@@ -2099,73 +2015,73 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K28">
-        <v>0.3823529411764706</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L28">
-        <v>156</v>
+        <v>48</v>
       </c>
       <c r="M28">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="N28">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>252</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K29">
-        <v>0.3809523809523809</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="L29">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M29">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N29">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K30">
-        <v>0.375</v>
+        <v>0.5054945054945055</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2177,21 +2093,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K31">
-        <v>0.3652173913043478</v>
+        <v>0.5</v>
       </c>
       <c r="L31">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="M31">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2203,47 +2119,47 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>73</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K32">
-        <v>0.3617021276595745</v>
+        <v>0.4893617021276596</v>
       </c>
       <c r="L32">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M32">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N32">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K33">
-        <v>0.359375</v>
+        <v>0.484375</v>
       </c>
       <c r="L33">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M33">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2255,21 +2171,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K34">
-        <v>0.3488372093023256</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2281,125 +2197,125 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K35">
-        <v>0.3414634146341464</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L35">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M35">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N35">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K36">
-        <v>0.3392857142857143</v>
+        <v>0.46</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M36">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N36">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K37">
-        <v>0.3354037267080746</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L37">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="M37">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="N37">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>107</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K38">
-        <v>0.3265306122448979</v>
+        <v>0.4213836477987422</v>
       </c>
       <c r="L38">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="M38">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="N38">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>33</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K39">
-        <v>0.311340206185567</v>
+        <v>0.4065420560747663</v>
       </c>
       <c r="L39">
-        <v>151</v>
+        <v>87</v>
       </c>
       <c r="M39">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="N39">
         <v>0.99</v>
@@ -2411,47 +2327,47 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>334</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K40">
-        <v>0.310077519379845</v>
+        <v>0.4020618556701031</v>
       </c>
       <c r="L40">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M40">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N40">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>89</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K41">
-        <v>0.3048780487804878</v>
+        <v>0.4</v>
       </c>
       <c r="L41">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M41">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2463,255 +2379,255 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>57</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K42">
-        <v>0.3012820512820513</v>
+        <v>0.3860911270983213</v>
       </c>
       <c r="L42">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="M42">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="N42">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="O42">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>109</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K43">
-        <v>0.2971698113207547</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="L43">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M43">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="N43">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>149</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K44">
-        <v>0.296969696969697</v>
+        <v>0.3712121212121212</v>
       </c>
       <c r="L44">
         <v>49</v>
       </c>
       <c r="M44">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K45">
-        <v>0.2947368421052631</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L45">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M45">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N45">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K46">
-        <v>0.288659793814433</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L46">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M46">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="N46">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>69</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K47">
-        <v>0.2878338278931751</v>
+        <v>0.3558282208588957</v>
       </c>
       <c r="L47">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="M47">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="N47">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>240</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K48">
-        <v>0.2876712328767123</v>
+        <v>0.3552631578947368</v>
       </c>
       <c r="L48">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="M48">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="N48">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>104</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K49">
-        <v>0.285012285012285</v>
+        <v>0.3536585365853658</v>
       </c>
       <c r="L49">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="M49">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="N49">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>291</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K50">
-        <v>0.2842105263157895</v>
+        <v>0.3522012578616352</v>
       </c>
       <c r="L50">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="M50">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="N50">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>68</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K51">
-        <v>0.2807017543859649</v>
+        <v>0.3511450381679389</v>
       </c>
       <c r="L51">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="M51">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2723,21 +2639,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>41</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K52">
-        <v>0.2711864406779661</v>
+        <v>0.3508771929824561</v>
       </c>
       <c r="L52">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M52">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2749,47 +2665,47 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K53">
-        <v>0.2692307692307692</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="L53">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M53">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N53">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K54">
-        <v>0.2673267326732673</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L54">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M54">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2801,21 +2717,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>74</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K55">
-        <v>0.2653061224489796</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L55">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M55">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2827,385 +2743,385 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K56">
-        <v>0.2620087336244541</v>
+        <v>0.3284671532846715</v>
       </c>
       <c r="L56">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="M56">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="N56">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>169</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K57">
-        <v>0.2615558060879369</v>
+        <v>0.3283582089552239</v>
       </c>
       <c r="L57">
-        <v>232</v>
+        <v>44</v>
       </c>
       <c r="M57">
-        <v>239</v>
+        <v>44</v>
       </c>
       <c r="N57">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>655</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K58">
-        <v>0.2598684210526316</v>
+        <v>0.3230452674897119</v>
       </c>
       <c r="L58">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="M58">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c r="N58">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>225</v>
+        <v>329</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K59">
-        <v>0.2587412587412588</v>
+        <v>0.314410480349345</v>
       </c>
       <c r="L59">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="M59">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>106</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K60">
-        <v>0.2585669781931464</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L60">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="M60">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="N60">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>238</v>
+        <v>288</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K61">
-        <v>0.25</v>
+        <v>0.3069306930693069</v>
       </c>
       <c r="L61">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M61">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N61">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K62">
-        <v>0.2477064220183486</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="L62">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M62">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N62">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>82</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K63">
-        <v>0.2461538461538462</v>
+        <v>0.3051948051948052</v>
       </c>
       <c r="L63">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="M63">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="N63">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>49</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="K64">
-        <v>0.2439602084320227</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="L64">
-        <v>515</v>
+        <v>34</v>
       </c>
       <c r="M64">
-        <v>547</v>
+        <v>34</v>
       </c>
       <c r="N64">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>1596</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K65">
-        <v>0.2429467084639498</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="L65">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="M65">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="N65">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>483</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K66">
-        <v>0.2415730337078652</v>
+        <v>0.3006993006993007</v>
       </c>
       <c r="L66">
-        <v>215</v>
+        <v>43</v>
       </c>
       <c r="M66">
-        <v>226</v>
+        <v>43</v>
       </c>
       <c r="N66">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>675</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="K67">
-        <v>0.2389322916666667</v>
+        <v>0.2982456140350877</v>
       </c>
       <c r="L67">
-        <v>734</v>
+        <v>17</v>
       </c>
       <c r="M67">
-        <v>769</v>
+        <v>17</v>
       </c>
       <c r="N67">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>2338</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K68">
-        <v>0.2372881355932203</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L68">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="M68">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>45</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K69">
-        <v>0.2337662337662338</v>
+        <v>0.2946428571428572</v>
       </c>
       <c r="L69">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M69">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="N69">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K70">
-        <v>0.2300884955752212</v>
+        <v>0.2935779816513762</v>
       </c>
       <c r="L70">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M70">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3217,73 +3133,73 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K71">
-        <v>0.2297297297297297</v>
+        <v>0.293103448275862</v>
       </c>
       <c r="L71">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="M71">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="N71">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K72">
-        <v>0.2296296296296296</v>
+        <v>0.288659793814433</v>
       </c>
       <c r="L72">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M72">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N72">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>104</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K73">
-        <v>0.2295081967213115</v>
+        <v>0.2848484848484849</v>
       </c>
       <c r="L73">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="M73">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -3295,73 +3211,73 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>47</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K74">
-        <v>0.2290076335877863</v>
+        <v>0.2836676217765043</v>
       </c>
       <c r="L74">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="M74">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="N74">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>101</v>
+        <v>250</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K75">
-        <v>0.2280701754385965</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="L75">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M75">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N75">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K76">
-        <v>0.2278481012658228</v>
+        <v>0.2784810126582278</v>
       </c>
       <c r="L76">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M76">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -3373,73 +3289,73 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K77">
-        <v>0.2253521126760563</v>
+        <v>0.272108843537415</v>
       </c>
       <c r="L77">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="M77">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="N77">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>55</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K78">
-        <v>0.2198581560283688</v>
+        <v>0.2686567164179104</v>
       </c>
       <c r="L78">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="M78">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="N78">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O78">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>440</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K79">
-        <v>0.2173913043478261</v>
+        <v>0.2630410654827969</v>
       </c>
       <c r="L79">
-        <v>15</v>
+        <v>237</v>
       </c>
       <c r="M79">
-        <v>15</v>
+        <v>237</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3451,21 +3367,21 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>54</v>
+        <v>664</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K80">
-        <v>0.2166666666666667</v>
+        <v>0.2628635346756152</v>
       </c>
       <c r="L80">
-        <v>13</v>
+        <v>235</v>
       </c>
       <c r="M80">
-        <v>13</v>
+        <v>235</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3477,125 +3393,125 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>47</v>
+        <v>659</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K81">
-        <v>0.2162162162162162</v>
+        <v>0.2626262626262627</v>
       </c>
       <c r="L81">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M81">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N81">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O81">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K82">
-        <v>0.212962962962963</v>
+        <v>0.2598425196850394</v>
       </c>
       <c r="L82">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M82">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N82">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O82">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K83">
-        <v>0.2113207547169811</v>
+        <v>0.2554744525547445</v>
       </c>
       <c r="L83">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="M83">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="N83">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>209</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K84">
-        <v>0.2068965517241379</v>
+        <v>0.254416961130742</v>
       </c>
       <c r="L84">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="M84">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84">
-        <v>92</v>
+        <v>422</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K85">
-        <v>0.2016129032258064</v>
+        <v>0.2540540540540541</v>
       </c>
       <c r="L85">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="M85">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3607,73 +3523,73 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>99</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K86">
-        <v>0.1979045401629802</v>
+        <v>0.2540296582849774</v>
       </c>
       <c r="L86">
-        <v>170</v>
+        <v>788</v>
       </c>
       <c r="M86">
-        <v>178</v>
+        <v>793</v>
       </c>
       <c r="N86">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O86">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P86" t="b">
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>689</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K87">
-        <v>0.196319018404908</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="L87">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M87">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="N87">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O87">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <v>131</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K88">
-        <v>0.1944444444444444</v>
+        <v>0.2536231884057971</v>
       </c>
       <c r="L88">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="M88">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3685,151 +3601,151 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>58</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K89">
-        <v>0.1939655172413793</v>
+        <v>0.2523364485981308</v>
       </c>
       <c r="L89">
-        <v>45</v>
+        <v>540</v>
       </c>
       <c r="M89">
-        <v>50</v>
+        <v>543</v>
       </c>
       <c r="N89">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="O89">
-        <v>0.09999999999999998</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P89" t="b">
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>187</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K90">
-        <v>0.1935483870967742</v>
+        <v>0.2507645259938838</v>
       </c>
       <c r="L90">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="M90">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="N90">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O90">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90">
-        <v>100</v>
+        <v>245</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K91">
-        <v>0.1911764705882353</v>
+        <v>0.25</v>
       </c>
       <c r="L91">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M91">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="N91">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O91">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q91">
-        <v>110</v>
+        <v>54</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K92">
-        <v>0.1902173913043478</v>
+        <v>0.25</v>
       </c>
       <c r="L92">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M92">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="N92">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O92">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q92">
-        <v>149</v>
+        <v>54</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K93">
-        <v>0.1875</v>
+        <v>0.2461538461538462</v>
       </c>
       <c r="L93">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M93">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N93">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O93">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q93">
-        <v>78</v>
+        <v>49</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K94">
-        <v>0.1847826086956522</v>
+        <v>0.2456140350877193</v>
       </c>
       <c r="L94">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M94">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -3841,47 +3757,47 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>75</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="K95">
-        <v>0.1787287602265576</v>
+        <v>0.2435897435897436</v>
       </c>
       <c r="L95">
-        <v>568</v>
+        <v>19</v>
       </c>
       <c r="M95">
-        <v>591</v>
+        <v>19</v>
       </c>
       <c r="N95">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O95">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q95">
-        <v>2610</v>
+        <v>59</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K96">
-        <v>0.1764705882352941</v>
+        <v>0.2435897435897436</v>
       </c>
       <c r="L96">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M96">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -3893,125 +3809,125 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>98</v>
+        <v>59</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K97">
-        <v>0.1759259259259259</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="L97">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M97">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N97">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O97">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q97">
-        <v>89</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K98">
-        <v>0.1756272401433692</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="L98">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="M98">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="N98">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O98">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q98">
-        <v>230</v>
+        <v>48</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K99">
-        <v>0.175</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="L99">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M99">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N99">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O99">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K100">
-        <v>0.1732283464566929</v>
+        <v>0.234375</v>
       </c>
       <c r="L100">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M100">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N100">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O100">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q100">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K101">
-        <v>0.171875</v>
+        <v>0.2338709677419355</v>
       </c>
       <c r="L101">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M101">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -4023,99 +3939,99 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K102">
-        <v>0.1711711711711712</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="L102">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="M102">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N102">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O102">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q102">
-        <v>184</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K103">
-        <v>0.1704545454545454</v>
+        <v>0.2314814814814815</v>
       </c>
       <c r="L103">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="M103">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="N103">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O103">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q103">
-        <v>73</v>
+        <v>498</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K104">
-        <v>0.169811320754717</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="L104">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M104">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N104">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="O104">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="P104" t="b">
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>88</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K105">
-        <v>0.168141592920354</v>
+        <v>0.2265625</v>
       </c>
       <c r="L105">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M105">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -4127,21 +4043,21 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K106">
-        <v>0.1666666666666667</v>
+        <v>0.2238805970149254</v>
       </c>
       <c r="L106">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M106">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -4153,21 +4069,21 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>115</v>
+        <v>52</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K107">
-        <v>0.1666666666666667</v>
+        <v>0.2212389380530974</v>
       </c>
       <c r="L107">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M107">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -4179,21 +4095,21 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>65</v>
+        <v>88</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K108">
-        <v>0.1634615384615385</v>
+        <v>0.219409282700422</v>
       </c>
       <c r="L108">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="M108">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -4205,21 +4121,21 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>87</v>
+        <v>185</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K109">
-        <v>0.1573033707865168</v>
+        <v>0.2184873949579832</v>
       </c>
       <c r="L109">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M109">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -4231,47 +4147,47 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K110">
-        <v>0.157190635451505</v>
+        <v>0.2097378277153558</v>
       </c>
       <c r="L110">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="M110">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="N110">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O110">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q110">
-        <v>252</v>
+        <v>211</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K111">
-        <v>0.154639175257732</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="L111">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M111">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N111">
         <v>1</v>
@@ -4283,333 +4199,333 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K112">
-        <v>0.1496062992125984</v>
+        <v>0.2018348623853211</v>
       </c>
       <c r="L112">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M112">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N112">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O112">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q112">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K113">
-        <v>0.140983606557377</v>
+        <v>0.2015503875968992</v>
       </c>
       <c r="L113">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M113">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="N113">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O113">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q113">
-        <v>262</v>
+        <v>103</v>
       </c>
     </row>
     <row r="114" spans="10:17">
       <c r="J114" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K114">
-        <v>0.1407407407407407</v>
+        <v>0.2009237875288684</v>
       </c>
       <c r="L114">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="M114">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="N114">
-        <v>0.86</v>
+        <v>0.99</v>
       </c>
       <c r="O114">
-        <v>0.14</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P114" t="b">
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>116</v>
+        <v>692</v>
       </c>
     </row>
     <row r="115" spans="10:17">
       <c r="J115" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K115">
-        <v>0.1339285714285714</v>
+        <v>0.1976744186046512</v>
       </c>
       <c r="L115">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="M115">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="N115">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O115">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q115">
-        <v>194</v>
+        <v>69</v>
       </c>
     </row>
     <row r="116" spans="10:17">
       <c r="J116" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K116">
-        <v>0.1323943661971831</v>
+        <v>0.1975308641975309</v>
       </c>
       <c r="L116">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="M116">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="N116">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O116">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P116" t="b">
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>308</v>
+        <v>65</v>
       </c>
     </row>
     <row r="117" spans="10:17">
       <c r="J117" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K117">
-        <v>0.131304347826087</v>
+        <v>0.1973684210526316</v>
       </c>
       <c r="L117">
-        <v>151</v>
+        <v>15</v>
       </c>
       <c r="M117">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="N117">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O117">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q117">
-        <v>999</v>
+        <v>61</v>
       </c>
     </row>
     <row r="118" spans="10:17">
       <c r="J118" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K118">
-        <v>0.1308411214953271</v>
+        <v>0.1895424836601307</v>
       </c>
       <c r="L118">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="M118">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="N118">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O118">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q118">
-        <v>93</v>
+        <v>248</v>
       </c>
     </row>
     <row r="119" spans="10:17">
       <c r="J119" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K119">
-        <v>0.1294117647058824</v>
+        <v>0.1857142857142857</v>
       </c>
       <c r="L119">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M119">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="N119">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O119">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q119">
-        <v>148</v>
+        <v>57</v>
       </c>
     </row>
     <row r="120" spans="10:17">
       <c r="J120" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K120">
-        <v>0.125</v>
+        <v>0.1854838709677419</v>
       </c>
       <c r="L120">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="M120">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="N120">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O120">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q120">
-        <v>469</v>
+        <v>101</v>
       </c>
     </row>
     <row r="121" spans="10:17">
       <c r="J121" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K121">
-        <v>0.1090909090909091</v>
+        <v>0.1850533807829181</v>
       </c>
       <c r="L121">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="M121">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="N121">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O121">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q121">
-        <v>147</v>
+        <v>229</v>
       </c>
     </row>
     <row r="122" spans="10:17">
       <c r="J122" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K122">
-        <v>0.1066666666666667</v>
+        <v>0.1841776110068793</v>
       </c>
       <c r="L122">
-        <v>16</v>
+        <v>589</v>
       </c>
       <c r="M122">
-        <v>16</v>
+        <v>592</v>
       </c>
       <c r="N122">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O122">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q122">
-        <v>134</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="123" spans="10:17">
       <c r="J123" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K123">
-        <v>0.106508875739645</v>
+        <v>0.18</v>
       </c>
       <c r="L123">
         <v>18</v>
       </c>
       <c r="M123">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N123">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O123">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q123">
-        <v>151</v>
+        <v>82</v>
       </c>
     </row>
     <row r="124" spans="10:17">
       <c r="J124" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K124">
-        <v>0.104</v>
+        <v>0.1769911504424779</v>
       </c>
       <c r="L124">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M124">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N124">
         <v>1</v>
@@ -4621,125 +4537,125 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="125" spans="10:17">
       <c r="J125" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K125">
-        <v>0.1029411764705882</v>
+        <v>0.1768292682926829</v>
       </c>
       <c r="L125">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M125">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N125">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O125">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q125">
-        <v>122</v>
+        <v>135</v>
       </c>
     </row>
     <row r="126" spans="10:17">
       <c r="J126" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K126">
-        <v>0.1004366812227074</v>
+        <v>0.1744186046511628</v>
       </c>
       <c r="L126">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M126">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N126">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O126">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q126">
-        <v>206</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127" spans="10:17">
       <c r="J127" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K127">
-        <v>0.0948905109489051</v>
+        <v>0.1728395061728395</v>
       </c>
       <c r="L127">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M127">
         <v>14</v>
       </c>
       <c r="N127">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O127">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q127">
-        <v>124</v>
+        <v>67</v>
       </c>
     </row>
     <row r="128" spans="10:17">
       <c r="J128" s="1" t="s">
-        <v>27</v>
+        <v>151</v>
       </c>
       <c r="K128">
-        <v>0.09052631578947369</v>
+        <v>0.1718061674008811</v>
       </c>
       <c r="L128">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="M128">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="N128">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="O128">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="P128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q128">
-        <v>864</v>
+        <v>188</v>
       </c>
     </row>
     <row r="129" spans="10:17">
       <c r="J129" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K129">
-        <v>0.06228373702422145</v>
+        <v>0.1685393258426966</v>
       </c>
       <c r="L129">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M129">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N129">
         <v>1</v>
@@ -4751,33 +4667,579 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>271</v>
+        <v>74</v>
       </c>
     </row>
     <row r="130" spans="10:17">
       <c r="J130" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K130">
-        <v>0.0367965367965368</v>
+        <v>0.1634615384615385</v>
       </c>
       <c r="L130">
         <v>17</v>
       </c>
       <c r="M130">
+        <v>17</v>
+      </c>
+      <c r="N130">
+        <v>1</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="P130" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="131" spans="10:17">
+      <c r="J131" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K131">
+        <v>0.1565217391304348</v>
+      </c>
+      <c r="L131">
+        <v>36</v>
+      </c>
+      <c r="M131">
+        <v>36</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="O131">
+        <v>0</v>
+      </c>
+      <c r="P131" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="132" spans="10:17">
+      <c r="J132" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K132">
+        <v>0.1521739130434783</v>
+      </c>
+      <c r="L132">
+        <v>14</v>
+      </c>
+      <c r="M132">
+        <v>14</v>
+      </c>
+      <c r="N132">
+        <v>1</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
+      <c r="P132" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="133" spans="10:17">
+      <c r="J133" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K133">
+        <v>0.1477272727272727</v>
+      </c>
+      <c r="L133">
+        <v>13</v>
+      </c>
+      <c r="M133">
+        <v>13</v>
+      </c>
+      <c r="N133">
+        <v>1</v>
+      </c>
+      <c r="O133">
+        <v>0</v>
+      </c>
+      <c r="P133" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q133">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="134" spans="10:17">
+      <c r="J134" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K134">
+        <v>0.1466666666666667</v>
+      </c>
+      <c r="L134">
+        <v>33</v>
+      </c>
+      <c r="M134">
+        <v>33</v>
+      </c>
+      <c r="N134">
+        <v>1</v>
+      </c>
+      <c r="O134">
+        <v>0</v>
+      </c>
+      <c r="P134" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q134">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="135" spans="10:17">
+      <c r="J135" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K135">
+        <v>0.1439655172413793</v>
+      </c>
+      <c r="L135">
+        <v>167</v>
+      </c>
+      <c r="M135">
+        <v>168</v>
+      </c>
+      <c r="N135">
+        <v>0.99</v>
+      </c>
+      <c r="O135">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P135" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q135">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="136" spans="10:17">
+      <c r="J136" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K136">
+        <v>0.1431192660550459</v>
+      </c>
+      <c r="L136">
+        <v>78</v>
+      </c>
+      <c r="M136">
+        <v>78</v>
+      </c>
+      <c r="N136">
+        <v>1</v>
+      </c>
+      <c r="O136">
+        <v>0</v>
+      </c>
+      <c r="P136" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q136">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="137" spans="10:17">
+      <c r="J137" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K137">
+        <v>0.1409395973154362</v>
+      </c>
+      <c r="L137">
+        <v>42</v>
+      </c>
+      <c r="M137">
+        <v>44</v>
+      </c>
+      <c r="N137">
+        <v>0.95</v>
+      </c>
+      <c r="O137">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P137" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q137">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="138" spans="10:17">
+      <c r="J138" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K138">
+        <v>0.1386138613861386</v>
+      </c>
+      <c r="L138">
+        <v>14</v>
+      </c>
+      <c r="M138">
+        <v>14</v>
+      </c>
+      <c r="N138">
+        <v>1</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+      <c r="P138" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q138">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="139" spans="10:17">
+      <c r="J139" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K139">
+        <v>0.1301775147928994</v>
+      </c>
+      <c r="L139">
+        <v>22</v>
+      </c>
+      <c r="M139">
+        <v>24</v>
+      </c>
+      <c r="N139">
+        <v>0.92</v>
+      </c>
+      <c r="O139">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P139" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q139">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="140" spans="10:17">
+      <c r="J140" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K140">
+        <v>0.1240875912408759</v>
+      </c>
+      <c r="L140">
+        <v>17</v>
+      </c>
+      <c r="M140">
+        <v>18</v>
+      </c>
+      <c r="N140">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O140">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P140" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q140">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="141" spans="10:17">
+      <c r="J141" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K141">
+        <v>0.1231884057971015</v>
+      </c>
+      <c r="L141">
+        <v>17</v>
+      </c>
+      <c r="M141">
+        <v>17</v>
+      </c>
+      <c r="N141">
+        <v>1</v>
+      </c>
+      <c r="O141">
+        <v>0</v>
+      </c>
+      <c r="P141" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q141">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="142" spans="10:17">
+      <c r="J142" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K142">
+        <v>0.1222222222222222</v>
+      </c>
+      <c r="L142">
+        <v>44</v>
+      </c>
+      <c r="M142">
+        <v>44</v>
+      </c>
+      <c r="N142">
+        <v>1</v>
+      </c>
+      <c r="O142">
+        <v>0</v>
+      </c>
+      <c r="P142" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q142">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="143" spans="10:17">
+      <c r="J143" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K143">
+        <v>0.1144578313253012</v>
+      </c>
+      <c r="L143">
         <v>19</v>
       </c>
-      <c r="N130">
+      <c r="M143">
+        <v>19</v>
+      </c>
+      <c r="N143">
+        <v>1</v>
+      </c>
+      <c r="O143">
+        <v>0</v>
+      </c>
+      <c r="P143" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q143">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="144" spans="10:17">
+      <c r="J144" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K144">
+        <v>0.1140350877192982</v>
+      </c>
+      <c r="L144">
+        <v>13</v>
+      </c>
+      <c r="M144">
+        <v>14</v>
+      </c>
+      <c r="N144">
+        <v>0.93</v>
+      </c>
+      <c r="O144">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P144" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q144">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="145" spans="10:17">
+      <c r="J145" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K145">
+        <v>0.1073825503355705</v>
+      </c>
+      <c r="L145">
+        <v>16</v>
+      </c>
+      <c r="M145">
+        <v>17</v>
+      </c>
+      <c r="N145">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O145">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P145" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q145">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="146" spans="10:17">
+      <c r="J146" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K146">
+        <v>0.104</v>
+      </c>
+      <c r="L146">
+        <v>13</v>
+      </c>
+      <c r="M146">
+        <v>13</v>
+      </c>
+      <c r="N146">
+        <v>1</v>
+      </c>
+      <c r="O146">
+        <v>0</v>
+      </c>
+      <c r="P146" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q146">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="147" spans="10:17">
+      <c r="J147" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K147">
+        <v>0.1005181347150259</v>
+      </c>
+      <c r="L147">
+        <v>97</v>
+      </c>
+      <c r="M147">
+        <v>100</v>
+      </c>
+      <c r="N147">
+        <v>0.97</v>
+      </c>
+      <c r="O147">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P147" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q147">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="148" spans="10:17">
+      <c r="J148" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K148">
+        <v>0.05498281786941581</v>
+      </c>
+      <c r="L148">
+        <v>16</v>
+      </c>
+      <c r="M148">
+        <v>18</v>
+      </c>
+      <c r="N148">
         <v>0.89</v>
       </c>
-      <c r="O130">
+      <c r="O148">
         <v>0.11</v>
       </c>
-      <c r="P130" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q130">
-        <v>445</v>
+      <c r="P148" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q148">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="149" spans="10:17">
+      <c r="J149" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K149">
+        <v>0.05190311418685121</v>
+      </c>
+      <c r="L149">
+        <v>15</v>
+      </c>
+      <c r="M149">
+        <v>15</v>
+      </c>
+      <c r="N149">
+        <v>1</v>
+      </c>
+      <c r="O149">
+        <v>0</v>
+      </c>
+      <c r="P149" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q149">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="150" spans="10:17">
+      <c r="J150" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K150">
+        <v>0.04967602591792657</v>
+      </c>
+      <c r="L150">
+        <v>23</v>
+      </c>
+      <c r="M150">
+        <v>24</v>
+      </c>
+      <c r="N150">
+        <v>0.96</v>
+      </c>
+      <c r="O150">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P150" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q150">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="151" spans="10:17">
+      <c r="J151" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K151">
+        <v>0.04666666666666667</v>
+      </c>
+      <c r="L151">
+        <v>14</v>
+      </c>
+      <c r="M151">
+        <v>14</v>
+      </c>
+      <c r="N151">
+        <v>1</v>
+      </c>
+      <c r="O151">
+        <v>0</v>
+      </c>
+      <c r="P151" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q151">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
